--- a/поворот матрицы.xlsx
+++ b/поворот матрицы.xlsx
@@ -15,9 +15,91 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>user</author>
+  </authors>
+  <commentList>
+    <comment ref="I4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>0,0</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+  <si>
+    <t>0,4 = 0,0</t>
+  </si>
+  <si>
+    <t>1,4 = 0,1</t>
+  </si>
+  <si>
+    <t>2,4 = 0,2</t>
+  </si>
+  <si>
+    <t>3,4 = 0,3</t>
+  </si>
+  <si>
+    <t>4,4 = 0,4</t>
+  </si>
+  <si>
+    <t>4,0 = 4,4</t>
+  </si>
+  <si>
+    <t>0,0 = 4,0</t>
+  </si>
+  <si>
+    <t>4,3 = 1,4</t>
+  </si>
+  <si>
+    <t>3,0 = 4,3</t>
+  </si>
+  <si>
+    <t>0,1 = 3,0</t>
+  </si>
+  <si>
+    <t>4,2 = 2,4</t>
+  </si>
+  <si>
+    <t>2,0 = 4,2</t>
+  </si>
+  <si>
+    <t>0,2 = 2,0</t>
+  </si>
+  <si>
+    <t>4,1 = 3,4</t>
+  </si>
+  <si>
+    <t>1,0 = 4,1</t>
+  </si>
+  <si>
+    <t>0,3 = 1,0</t>
+  </si>
+  <si>
+    <t>i=0</t>
+  </si>
+  <si>
+    <t>j=0..4</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,6 +107,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="7">
@@ -401,16 +489,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C4:M22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:Z22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="Z4" sqref="Z4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="21.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="4" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X3" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="1">
         <v>1</v>
       </c>
@@ -438,8 +534,14 @@
       <c r="M4" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="1">
         <v>5</v>
       </c>
@@ -467,8 +569,14 @@
       <c r="M5" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S5" t="s">
+        <v>1</v>
+      </c>
+      <c r="X5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="1">
         <v>9</v>
       </c>
@@ -496,8 +604,14 @@
       <c r="M6" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S6" t="s">
+        <v>2</v>
+      </c>
+      <c r="X6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="1">
         <v>13</v>
       </c>
@@ -525,8 +639,14 @@
       <c r="M7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S7" t="s">
+        <v>3</v>
+      </c>
+      <c r="X7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I8" s="1">
         <v>1</v>
       </c>
@@ -542,8 +662,11 @@
       <c r="M8" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="S8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="1">
         <v>13</v>
       </c>
@@ -556,8 +679,11 @@
       <c r="F9" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="1">
         <v>14</v>
       </c>
@@ -585,8 +711,11 @@
       <c r="M10" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="1">
         <v>15</v>
       </c>
@@ -614,8 +743,11 @@
       <c r="M11" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="1">
         <v>16</v>
       </c>
@@ -643,8 +775,11 @@
       <c r="M12" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="I13" s="1">
         <v>4</v>
       </c>
@@ -661,7 +796,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="1">
         <v>16</v>
       </c>
@@ -689,8 +824,11 @@
       <c r="M14" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="15" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="1">
         <v>12</v>
       </c>
@@ -703,8 +841,11 @@
       <c r="F15" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="16" spans="3:13" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="3:26" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C16" s="1">
         <v>8</v>
       </c>
@@ -717,8 +858,11 @@
       <c r="F16" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="17" spans="3:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="3:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C17" s="1">
         <v>4</v>
       </c>
@@ -731,11 +875,14 @@
       <c r="F17" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="3:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="3:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="1">
         <v>4</v>
       </c>
@@ -748,8 +895,11 @@
       <c r="F19" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="3:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="3:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="1">
         <v>3</v>
       </c>
@@ -762,8 +912,11 @@
       <c r="F20" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="3:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="3:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="1">
         <v>2</v>
       </c>
@@ -776,8 +929,11 @@
       <c r="F21" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="22" spans="3:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="X21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="3:24" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C22" s="1">
         <v>1</v>
       </c>
@@ -790,9 +946,13 @@
       <c r="F22" s="1">
         <v>13</v>
       </c>
+      <c r="X22" t="s">
+        <v>15</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
